--- a/raw/list_for_vplot_LK.xlsx
+++ b/raw/list_for_vplot_LK.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10215"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lknaus\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dmalzl/novarinocollab/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BCDAEDD-6EFD-664F-BB0F-1F98C948E7F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20835" windowHeight="5610" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="21980" windowHeight="11580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="metabol_Vplot_HILIC_A" sheetId="1" r:id="rId1"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="29">
   <si>
     <t>Pyruvic acid</t>
   </si>
@@ -113,16 +114,13 @@
     <t>Hexanoylcarnitine</t>
   </si>
   <si>
-    <t xml:space="preserve">Arginine </t>
-  </si>
-  <si>
-    <t>Lysine</t>
+    <t xml:space="preserve">L-(+)-Arginine </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -132,7 +130,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -157,8 +155,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor theme="9" tint="0.59999389629810485"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -194,17 +198,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFBFBFBF"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFBFBFBF"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -215,7 +208,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -495,73 +488,73 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -570,59 +563,59 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.5703125" customWidth="1"/>
+    <col min="1" max="1" width="24.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>19</v>
       </c>
@@ -633,61 +626,61 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>14</v>
       </c>
@@ -698,46 +691,46 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>18</v>
       </c>
